--- a/Django/docs.djangoproject.com.xlsx
+++ b/Django/docs.djangoproject.com.xlsx
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C9:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/Django/docs.djangoproject.com.xlsx
+++ b/Django/docs.djangoproject.com.xlsx
@@ -4,27 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="1" r:id="rId1"/>
     <sheet name="admin-page" sheetId="2" r:id="rId2"/>
-    <sheet name="model" sheetId="4" r:id="rId3"/>
-    <sheet name="great-syntax" sheetId="5" r:id="rId4"/>
-    <sheet name="tip" sheetId="6" r:id="rId5"/>
-    <sheet name="bug" sheetId="7" r:id="rId6"/>
-    <sheet name="dj-built-in-template" sheetId="8" r:id="rId7"/>
-    <sheet name="pagination" sheetId="9" r:id="rId8"/>
-    <sheet name="good_consult" sheetId="10" r:id="rId9"/>
-    <sheet name="NYN__" sheetId="11" r:id="rId10"/>
-    <sheet name="my_exp" sheetId="12" r:id="rId11"/>
+    <sheet name="overal" sheetId="14" r:id="rId3"/>
+    <sheet name="model" sheetId="4" r:id="rId4"/>
+    <sheet name="great-syntax" sheetId="5" r:id="rId5"/>
+    <sheet name="tip" sheetId="6" r:id="rId6"/>
+    <sheet name="bug" sheetId="7" r:id="rId7"/>
+    <sheet name="dj-built-in-template" sheetId="8" r:id="rId8"/>
+    <sheet name="pagination" sheetId="9" r:id="rId9"/>
+    <sheet name="good_consult" sheetId="10" r:id="rId10"/>
+    <sheet name="NYN__" sheetId="11" r:id="rId11"/>
+    <sheet name="my_exp" sheetId="12" r:id="rId12"/>
+    <sheet name="open source" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>https://docs.djangoproject.com/en/3.0/topics/db/examples/</t>
   </si>
@@ -209,6 +211,24 @@
   </si>
   <si>
     <t>else : remove database data-table</t>
+  </si>
+  <si>
+    <t>https://www.votelearn.com/learning-paths/backend-web-developer-roadmap-with-django/</t>
+  </si>
+  <si>
+    <t>https://github.com/wsvincent/awesome-django</t>
+  </si>
+  <si>
+    <t>https://github.com/vinta/awesome-python</t>
+  </si>
+  <si>
+    <t>https://vsupalov.com/six-big-open-source-django-codebases/</t>
+  </si>
+  <si>
+    <t>roadmap</t>
+  </si>
+  <si>
+    <t>https://django.readthedocs.io/en/1.4.X/contents.html#</t>
   </si>
 </sst>
 </file>
@@ -801,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -864,6 +884,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" s="13" customFormat="1" ht="21">
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" s="13" customFormat="1" ht="21">
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C6:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -899,7 +951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C5"/>
   <sheetViews>
@@ -928,6 +980,52 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1002,6 +1100,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1203,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:F6"/>
   <sheetViews>
@@ -1245,7 +1366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:C5"/>
   <sheetViews>
@@ -1277,11 +1398,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C9:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1407,7 +1528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:E13"/>
   <sheetViews>
@@ -1475,7 +1596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B7:C8"/>
   <sheetViews>
@@ -1505,30 +1626,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:3" s="13" customFormat="1" ht="21">
-      <c r="C4" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>